--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3370983.159969529</v>
+        <v>3467653.136453903</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>89.13491008362027</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>33.21446231455224</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.97019289371277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>32.1926307745528</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>5.8565834949491</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>27.07177681614431</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>218.9369279848392</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.87416669520763</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>352.3439672503729</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>134.7381014859968</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>219.4708547424611</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292603</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.6395518926745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>69.27964994113539</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>194.9059530372554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>284.8159074788287</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292602</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>41.20430323174998</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.5012390502475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>132.9940912630072</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>40.74271781892654</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.643059340846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,22 +2529,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>118.3241054138024</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>121.7278072995557</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.3481369083735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>32.4459457112066</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>47.48599260493678</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>14.89349876580328</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,16 +3243,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>190.2812383119025</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,10 +3322,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.96814994402119</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>42.15398027202716</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>29.25152071592548</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3712,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>5.201763060531267</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589029</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>20.84901245549792</v>
       </c>
       <c r="U43" t="n">
-        <v>16.62356796242901</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>57.62787044199911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>22.26634217487646</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>829.562656169633</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>460.6001392292213</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>554.9641493206996</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>143.978244531092</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2663.599129084331</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2663.599129084331</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2332.53624174076</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1979.767586470646</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1606.301828209567</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1216.162496233755</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.6310627346887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>263.6310627346887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>263.6310627346887</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.817756940316</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>959.8552399999044</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>959.8552399999044</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>574.0669874016601</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>567.1214866524566</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4598,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.957088916128</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.817756940316</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J6" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J6" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>523.2201773870239</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>268.535689181137</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>268.535689181137</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481816</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="U10" t="n">
-        <v>249.7161456655658</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="V10" t="n">
-        <v>249.7161456655658</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>562.6129726499586</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,25 +5135,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.822894557956</v>
+        <v>728.5987256350443</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>728.5987256350443</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>578.4820862227085</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>430.5689926403154</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>430.5689926403154</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>262.8661560150343</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057174</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.870226851287</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W13" t="n">
-        <v>931.4530568143261</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="X13" t="n">
-        <v>703.4635059163088</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.6709267727787</v>
+        <v>910.247190465284</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5267,58 +5269,58 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467722</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1797.117834600127</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2330.649739272052</v>
       </c>
       <c r="N14" t="n">
-        <v>3362.809616117416</v>
+        <v>2877.428556330834</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
         <v>2760.816196754298</v>
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5396,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.4807149410336</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5440,13 +5442,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1567.782881893898</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1278.680015019542</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1278.680015019542</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W16" t="n">
-        <v>989.2628449825811</v>
+        <v>621.5803183411406</v>
       </c>
       <c r="X16" t="n">
-        <v>761.2732940845638</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.4807149410336</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,64 +5503,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1395.429061104434</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2373.979363934262</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.758180993045</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324507</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.5269503710301</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431232</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>284.0714902612037</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>137.1815427632934</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>137.1815427632934</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208126</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>771.1140605227953</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.5269503710301</v>
+        <v>613.6330486738366</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5747,31 +5749,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993044</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5786,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3773.434671845129</v>
+        <v>788.0341484576122</v>
       </c>
       <c r="C22" t="n">
-        <v>3773.434671845129</v>
+        <v>788.0341484576122</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432793</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.4049388504</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>4586.365838246547</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>4297.262971372191</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V22" t="n">
-        <v>4042.578483166304</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W22" t="n">
-        <v>4001.424222743146</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X22" t="n">
-        <v>3773.434671845129</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="Y22" t="n">
-        <v>3773.434671845129</v>
+        <v>969.682613287852</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780954</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>974.4454116758762</v>
+        <v>676.4156786811474</v>
       </c>
       <c r="C25" t="n">
-        <v>805.5092287479694</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="D25" t="n">
-        <v>655.3925893356336</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E25" t="n">
         <v>507.4794957532405</v>
@@ -6136,13 +6138,13 @@
         <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6175,22 +6177,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814702</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.307087777741</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.307087777741</v>
+        <v>1078.856722654917</v>
       </c>
       <c r="Y25" t="n">
-        <v>1096.307087777741</v>
+        <v>858.0641435113871</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6209,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6224,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442899</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993044</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6269,7 +6271,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.2936040684043</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C28" t="n">
-        <v>561.2936040684043</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560685</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.57685067423</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.892362468343</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.475192431382</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X28" t="n">
-        <v>962.4856415333647</v>
+        <v>903.0502187107973</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.942068898644</v>
+        <v>682.2576395672671</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N29" t="n">
-        <v>3027.596327402151</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O29" t="n">
-        <v>3907.560977731605</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.5338801960603</v>
+        <v>3477.10084565065</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5976972681534</v>
+        <v>3477.10084565065</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>3477.10084565065</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>3329.187752068257</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="V31" t="n">
-        <v>1427.589065961278</v>
+        <v>4020.084277367713</v>
       </c>
       <c r="W31" t="n">
-        <v>1138.171895924317</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="X31" t="n">
-        <v>910.1823450263</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="Y31" t="n">
-        <v>910.1823450263</v>
+        <v>3509.874528187222</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>741.1020862043849</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1605.62090185774</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2584.171204687568</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>425.7583423057196</v>
+        <v>3480.537737783218</v>
       </c>
       <c r="C34" t="n">
-        <v>256.8221593778127</v>
+        <v>3311.601554855311</v>
       </c>
       <c r="D34" t="n">
-        <v>256.8221593778127</v>
+        <v>3161.484915442976</v>
       </c>
       <c r="E34" t="n">
-        <v>241.7782212305366</v>
+        <v>3161.484915442976</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384228</v>
+        <v>4172.395951793948</v>
       </c>
       <c r="W34" t="n">
-        <v>874.540472347267</v>
+        <v>3882.978781756988</v>
       </c>
       <c r="X34" t="n">
-        <v>646.5509214492497</v>
+        <v>3882.978781756988</v>
       </c>
       <c r="Y34" t="n">
-        <v>425.7583423057196</v>
+        <v>3662.186202613458</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6938,25 +6940,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1404.507041060941</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M35" t="n">
-        <v>2383.057343890769</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N35" t="n">
-        <v>3362.809616117416</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6974,7 +6976,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7017,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>824.3287722635405</v>
+        <v>3845.045177591381</v>
       </c>
       <c r="C37" t="n">
-        <v>655.3925893356336</v>
+        <v>3676.108994663474</v>
       </c>
       <c r="D37" t="n">
-        <v>655.3925893356336</v>
+        <v>3525.992355251139</v>
       </c>
       <c r="E37" t="n">
-        <v>507.4794957532405</v>
+        <v>3378.079261668745</v>
       </c>
       <c r="F37" t="n">
-        <v>360.5895482553301</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>1810.989625080392</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T37" t="n">
-        <v>1589.223009649918</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.223009649918</v>
+        <v>4297.262971372191</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.538521444031</v>
+        <v>4254.683193319638</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.121351407071</v>
+        <v>4254.683193319638</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.121351407071</v>
+        <v>4026.693642421621</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.3287722635405</v>
+        <v>4026.693642421621</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,46 +7180,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M38" t="n">
-        <v>2782.232616025903</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N38" t="n">
-        <v>3329.011433084685</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7257,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>654.7198286198654</v>
+        <v>3509.874528187223</v>
       </c>
       <c r="C40" t="n">
-        <v>654.7198286198654</v>
+        <v>3509.874528187223</v>
       </c>
       <c r="D40" t="n">
-        <v>654.7198286198654</v>
+        <v>3359.757888774888</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>3211.844795192495</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U40" t="n">
-        <v>1385.724257814702</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="V40" t="n">
-        <v>1131.039769608815</v>
+        <v>4020.084277367714</v>
       </c>
       <c r="W40" t="n">
-        <v>841.6225995718539</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="X40" t="n">
-        <v>836.3682934501052</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.3682934501052</v>
+        <v>3509.874528187223</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7390,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7412,25 +7414,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.758180993045</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7479,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7491,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3644.341121778307</v>
+        <v>3845.045177591381</v>
       </c>
       <c r="C43" t="n">
-        <v>3475.4049388504</v>
+        <v>3676.108994663474</v>
       </c>
       <c r="D43" t="n">
-        <v>3475.4049388504</v>
+        <v>3525.992355251139</v>
       </c>
       <c r="E43" t="n">
-        <v>3475.4049388504</v>
+        <v>3378.079261668745</v>
       </c>
       <c r="F43" t="n">
-        <v>3328.51499135249</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727209</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I43" t="n">
         <v>2917.269290763412</v>
@@ -7591,28 +7593,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S43" t="n">
-        <v>4586.365838246547</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T43" t="n">
-        <v>4364.599222816073</v>
+        <v>4475.475772463168</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.807740025741</v>
+        <v>4475.475772463168</v>
       </c>
       <c r="V43" t="n">
-        <v>4093.123251819854</v>
+        <v>4475.475772463168</v>
       </c>
       <c r="W43" t="n">
-        <v>4093.123251819854</v>
+        <v>4475.475772463168</v>
       </c>
       <c r="X43" t="n">
-        <v>3865.133700921837</v>
+        <v>4247.486221565151</v>
       </c>
       <c r="Y43" t="n">
-        <v>3644.341121778307</v>
+        <v>4026.693642421621</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7627,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>1832.617028429935</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>885.7654343213993</v>
+        <v>3644.341121778306</v>
       </c>
       <c r="C46" t="n">
-        <v>716.8292513934924</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="D46" t="n">
-        <v>566.7126119811567</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="E46" t="n">
-        <v>418.7995183987636</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>4755.560467697624</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>4563.87458352445</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>4563.87458352445</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.890966501056</v>
+        <v>4274.771716650093</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.206478295169</v>
+        <v>4274.771716650093</v>
       </c>
       <c r="W46" t="n">
-        <v>1288.206478295169</v>
+        <v>4274.771716650093</v>
       </c>
       <c r="X46" t="n">
-        <v>1288.206478295169</v>
+        <v>4046.782165752076</v>
       </c>
       <c r="Y46" t="n">
-        <v>1067.413899151639</v>
+        <v>3825.989586608546</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>64.28566532692543</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>285.7011105564213</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>148.4180109385379</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>314.5564971416987</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>160.3329896347531</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>374.1693948021941</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>160.3329896347523</v>
+        <v>315.167921710931</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>185.3870697685875</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>192.1853085771343</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>411.0304280898994</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>170.1140909277305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>124.0833809162814</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>285.7011105564197</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>14.45386895940641</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>345.3140082169171</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>34.13957882094019</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>192.1853085771352</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>63.01588120402209</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.19242828926284</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>75.47536497318539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>24.64299623891375</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.707090857762296</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>103.5507116825708</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.08341430184728</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15.62138175520514</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>245.7802805176645</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.1889208410913</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>107.3855499752348</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>58.10417288238156</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.236516443721314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>147.3860344707307</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>204.6516507188912</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>131.5404638807659</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>61.85640501192549</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>134.8008753874207</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>209.9836630518008</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>116.1695273070058</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.5078923285059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>198.6999368206713</v>
       </c>
       <c r="U43" t="n">
-        <v>269.5882702431838</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>87.79317758093214</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>66.66581049517083</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695865.7317752831</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752831</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752831</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.2163965707</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="G2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="H2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="I2" t="n">
+        <v>714747.2163965699</v>
+      </c>
+      <c r="J2" t="n">
         <v>714747.2163965707</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>714747.2163965703</v>
       </c>
-      <c r="K2" t="n">
-        <v>714747.2163965704</v>
-      </c>
       <c r="L2" t="n">
-        <v>714747.2163965708</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="M2" t="n">
         <v>714747.2163965706</v>
       </c>
       <c r="N2" t="n">
-        <v>714747.2163965708</v>
+        <v>714747.2163965702</v>
       </c>
       <c r="O2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="P2" t="n">
-        <v>714747.2163965701</v>
+        <v>714747.2163965702</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709182</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.9607925291</v>
+        <v>-126095.9607925289</v>
       </c>
       <c r="C6" t="n">
         <v>463871.9184220157</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220153</v>
+        <v>463871.9184220155</v>
       </c>
       <c r="E6" t="n">
         <v>-130633.3238476415</v>
       </c>
       <c r="F6" t="n">
+        <v>596744.0901457645</v>
+      </c>
+      <c r="G6" t="n">
         <v>596744.0901457652</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>596744.090145765</v>
       </c>
-      <c r="H6" t="n">
-        <v>596744.0901457648</v>
-      </c>
       <c r="I6" t="n">
+        <v>596744.0901457644</v>
+      </c>
+      <c r="J6" t="n">
+        <v>420320.8709531723</v>
+      </c>
+      <c r="K6" t="n">
+        <v>596744.0901457649</v>
+      </c>
+      <c r="L6" t="n">
         <v>596744.0901457652</v>
-      </c>
-      <c r="J6" t="n">
-        <v>420320.870953172</v>
-      </c>
-      <c r="K6" t="n">
-        <v>596744.090145765</v>
-      </c>
-      <c r="L6" t="n">
-        <v>596744.0901457653</v>
       </c>
       <c r="M6" t="n">
         <v>467101.7753068202</v>
       </c>
       <c r="N6" t="n">
-        <v>596744.0901457653</v>
+        <v>596744.0901457648</v>
       </c>
       <c r="O6" t="n">
-        <v>596744.0901457651</v>
+        <v>596744.0901457652</v>
       </c>
       <c r="P6" t="n">
-        <v>596744.0901457646</v>
+        <v>596744.0901457644</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>324.6492599371747</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>183.2338580431056</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>131.6452801244996</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.5915392462422</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>363.8745171835199</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>259.2100974258334</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>6.77272740419798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.8596749682729</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>33.89397140568065</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>11.92709049416101</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>66.81101949951662</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35255,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>519.8757797192576</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>838.0029459693326</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>485.6092974939385</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>866.8583325546102</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>615.9231040270853</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>882.2223956904132</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>712.6348250476638</v>
+        <v>867.4697571238424</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36139,10 +36141,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>724.3081855988142</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36604,19 +36606,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>744.4871439900458</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36832,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>963.3322635028109</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>568.8760771471024</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>461.2746674716819</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>838.0029459693312</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37087,7 +37089,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37306,28 +37308,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>470.0439833517386</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,25 +37548,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.9041226092493</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>542.1925797091593</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37780,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>744.4871439900467</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>601.9369970342491</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3467653.136453903</v>
+        <v>3461931.524486018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8205598.847109547</v>
+        <v>8205598.847109546</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>91.4739706906593</v>
       </c>
       <c r="G2" t="n">
-        <v>89.13491008362027</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>116.6441915191132</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8565834949491</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.07177681614431</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.0887386816668</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>341.7625865374715</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>352.3439672503729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
-        <v>134.7381014859968</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>69.27964994113539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.601081015446814</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>284.8159074788287</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.20430323174998</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>132.9940912630072</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,19 +2532,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>118.3241054138024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.7278072995557</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.4459457112066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,16 +3243,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>190.2812383119025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>42.15398027202716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>29.25152071592548</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589029</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>20.84901245549792</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>22.26634217487646</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D2" t="n">
-        <v>940.7524019189439</v>
+        <v>546.052588672603</v>
       </c>
       <c r="E2" t="n">
-        <v>554.9641493206996</v>
+        <v>160.2643360743587</v>
       </c>
       <c r="F2" t="n">
-        <v>143.978244531092</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,16 +4424,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2524.297985872844</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="X5" t="n">
-        <v>2163.808208254881</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>523.2201773870239</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>268.535689181137</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>268.535689181137</v>
+        <v>181.3053441250784</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6129726499586</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277728</v>
@@ -5047,46 +5047,46 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.758180993044</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390115</v>
@@ -5135,7 +5135,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.5987256350443</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>728.5987256350443</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>578.4820862227085</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>430.5689926403154</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>430.5689926403154</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>262.8661560150343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814701</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608814</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.039769608814</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.039769608814</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>910.247190465284</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5269,40 +5269,40 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>932.5990189467722</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600127</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272052</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330834</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660289</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5314,13 +5314,13 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
         <v>2760.816196754298</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5396,7 +5396,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>393.5907674431232</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C16" t="n">
-        <v>393.5907674431232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258585</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783413</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>621.5803183411406</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X16" t="n">
-        <v>393.5907674431232</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y16" t="n">
-        <v>393.5907674431232</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="17">
@@ -5494,52 +5494,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.993034926781</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.9845838435969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>431.9845838435969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>431.9845838435969</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>284.0714902612037</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1815427632934</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1815427632934</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718539</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>613.6330486738366</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.6330486738366</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5749,37 +5749,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.0341484576122</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0341484576122</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.892362468343</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.475192431382</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>1190.475192431382</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>969.682613287852</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>676.4156786811474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1198.376021052697</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.856722654917</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y25" t="n">
-        <v>858.0641435113871</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,43 +6211,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6271,7 +6271,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839441</v>
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>1131.039769608815</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>903.0502187107973</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>682.2576395672671</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3477.10084565065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>3477.10084565065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>3477.10084565065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>3329.187752068257</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.7687655736</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>4274.7687655736</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>4020.084277367713</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>3730.667107330753</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>3730.667107330753</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3509.874528187222</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6706,25 +6706,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.758180993044</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3480.537737783218</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3311.601554855311</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3161.484915442976</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3161.484915442976</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>4364.599222816072</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>4172.395951793948</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>3882.978781756988</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>3882.978781756988</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>3662.186202613458</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6916,37 +6916,37 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175504</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
         <v>2979.169639353395</v>
@@ -6976,7 +6976,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,25 +7031,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.045177591381</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C37" t="n">
-        <v>3676.108994663474</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D37" t="n">
-        <v>3525.992355251139</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E37" t="n">
-        <v>3378.079261668745</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F37" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>4586.365838246547</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>4297.262971372191</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>4254.683193319638</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>4254.683193319638</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>4026.693642421621</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y37" t="n">
-        <v>4026.693642421621</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1732.058578925876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
@@ -7277,16 +7277,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3509.874528187223</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3509.874528187223</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3359.757888774888</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3211.844795192495</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>4274.768765573601</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>4020.084277367714</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>3730.667107330753</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3730.667107330753</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3509.874528187223</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,25 +7490,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3845.045177591381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>3676.108994663474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>3525.992355251139</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>3378.079261668745</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.475772463168</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.475772463168</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.475772463168</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.475772463168</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>4247.486221565151</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>4026.693642421621</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366029</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>1832.617028429935</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2812.369300656582</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
         <v>1715.000032008794</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3644.341121778306</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>4755.560467697624</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>4563.87458352445</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>4563.87458352445</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>4274.771716650093</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>4274.771716650093</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>4274.771716650093</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>4046.782165752076</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>3825.989586608546</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,19 +8695,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>285.7011105564213</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>148.4180109385379</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>344.7025836476846</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>374.1693948021941</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>411.0304280898994</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>285.7011105564197</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>388.4310778980899</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>345.3140082169171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564223</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>63.01588120402209</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>75.47536497318539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>159.645740083181</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.707090857762296</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>103.5507116825708</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.62138175520514</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>107.3855499752348</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.10417288238156</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.3860344707307</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.85640501192549</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.6633565680081</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>209.9836630518008</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>116.1695273070058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>198.6999368206713</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.66581049517083</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695865.7317752831</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695865.7317752831</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
+        <v>714747.2163965703</v>
+      </c>
+      <c r="F2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="G2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="H2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="I2" t="n">
+        <v>714747.2163965701</v>
+      </c>
+      <c r="J2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="K2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="L2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="F2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="O2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="I2" t="n">
-        <v>714747.2163965699</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="L2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="M2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>714747.2163965702</v>
-      </c>
-      <c r="O2" t="n">
-        <v>714747.2163965707</v>
-      </c>
       <c r="P2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.21639657</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="M4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.9607925289</v>
+        <v>-126095.9607925288</v>
       </c>
       <c r="C6" t="n">
         <v>463871.9184220157</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220155</v>
+        <v>463871.9184220157</v>
       </c>
       <c r="E6" t="n">
-        <v>-130633.3238476415</v>
+        <v>-131305.2787498997</v>
       </c>
       <c r="F6" t="n">
-        <v>596744.0901457645</v>
+        <v>596072.1352435072</v>
       </c>
       <c r="G6" t="n">
-        <v>596744.0901457652</v>
+        <v>596072.1352435072</v>
       </c>
       <c r="H6" t="n">
-        <v>596744.090145765</v>
+        <v>596072.1352435073</v>
       </c>
       <c r="I6" t="n">
-        <v>596744.0901457644</v>
+        <v>596072.1352435068</v>
       </c>
       <c r="J6" t="n">
-        <v>420320.8709531723</v>
+        <v>419648.9160509142</v>
       </c>
       <c r="K6" t="n">
-        <v>596744.0901457649</v>
+        <v>596072.1352435073</v>
       </c>
       <c r="L6" t="n">
-        <v>596744.0901457652</v>
+        <v>596072.135243507</v>
       </c>
       <c r="M6" t="n">
-        <v>467101.7753068202</v>
+        <v>466429.8204045625</v>
       </c>
       <c r="N6" t="n">
-        <v>596744.0901457648</v>
+        <v>596072.1352435073</v>
       </c>
       <c r="O6" t="n">
-        <v>596744.0901457652</v>
+        <v>596072.1352435071</v>
       </c>
       <c r="P6" t="n">
-        <v>596744.0901457644</v>
+        <v>596072.1352435066</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>315.4020750510521</v>
       </c>
       <c r="G2" t="n">
-        <v>324.6492599371747</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>57.77152128985826</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>363.8745171835199</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>259.2100974258334</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042796</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>7.478382179941548</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.89397140568065</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
-        <v>11.92709049416101</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>838.0029459693326</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>485.6092974939385</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509647</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779111</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>882.2223956904132</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>867.4697571238424</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>963.3322635028109</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>838.0029459693312</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>940.7329133110014</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>800.9041226092493</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757939</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M44" t="n">
-        <v>601.9369970342491</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3461931.524486018</v>
+        <v>3465337.015610466</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>91.4739706906593</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>100.9589955168699</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>307.7743159237151</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>116.6441915191132</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.0887386816668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.7625865374715</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733165</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>209.6688875285066</v>
       </c>
       <c r="U13" t="n">
-        <v>270.0697021486461</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>7.601081015446814</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785986</v>
+        <v>67.41386939711265</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.5103646250807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249706</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.280804219765</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>904.3182872793534</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>546.052588672603</v>
+        <v>548.6555185181858</v>
       </c>
       <c r="E2" t="n">
-        <v>160.2643360743587</v>
+        <v>162.8672659199415</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>155.9217651707381</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>789.7354380690731</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>782.7899373198696</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>364.8261292180565</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2524.297985872844</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2305.663318844906</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.663318844906</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.663318844906</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2305.663318844906</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2305.663318844906</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4962,52 +4962,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5111,22 +5111,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1654.726253782932</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1654.726253782932</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1400.041765577045</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1110.624595540085</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>1110.624595540085</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5278,19 +5278,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5305,19 +5305,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.9417306852379</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
         <v>263.2638710736754</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570251</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590077</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154776</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622689</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5782,10 +5782,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433621</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998319</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V25" t="n">
-        <v>909.27315417834</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413794</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433621</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M26" t="n">
         <v>2432.390822294612</v>
@@ -6253,25 +6253,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,67 +6448,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,10 +6779,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,25 +7031,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0738540998319</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0738540998319</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0738540998319</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0738540998319</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998319</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,10 +7162,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,22 +7174,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871642</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,25 +7253,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,22 +7347,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
         <v>1270.093287563029</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,22 +7584,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
         <v>1270.093287563029</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,22 +7821,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9172,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476846</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476847</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476844</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7011105564223</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>295.4822118493975</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>46.30618790178738</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>9.880061747662609</v>
       </c>
       <c r="U13" t="n">
-        <v>16.14213605696682</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>159.645740083181</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270143</v>
+        <v>218.7979688085002</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>52.77216054947225</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696668</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>45.39044159700435</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>70.6633565680081</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752833</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695865.7317752832</v>
+        <v>695865.7317752831</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695865.7317752833</v>
+        <v>695865.7317752832</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965703</v>
+        <v>714747.2163965702</v>
       </c>
       <c r="F2" t="n">
         <v>714747.2163965706</v>
@@ -26331,31 +26331,31 @@
         <v>714747.2163965706</v>
       </c>
       <c r="H2" t="n">
-        <v>714747.2163965707</v>
+        <v>714747.2163965708</v>
       </c>
       <c r="I2" t="n">
         <v>714747.2163965701</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="K2" t="n">
         <v>714747.2163965707</v>
       </c>
       <c r="L2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="M2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="N2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="O2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="P2" t="n">
         <v>714747.2163965704</v>
-      </c>
-      <c r="M2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="N2" t="n">
-        <v>714747.2163965707</v>
-      </c>
-      <c r="O2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="P2" t="n">
-        <v>714747.21639657</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709179</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126095.9607925288</v>
+        <v>-126095.960792529</v>
       </c>
       <c r="C6" t="n">
-        <v>463871.9184220157</v>
+        <v>463871.9184220153</v>
       </c>
       <c r="D6" t="n">
-        <v>463871.9184220157</v>
+        <v>463871.9184220153</v>
       </c>
       <c r="E6" t="n">
-        <v>-131305.2787498997</v>
+        <v>-130700.5193378678</v>
       </c>
       <c r="F6" t="n">
-        <v>596072.1352435072</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="G6" t="n">
-        <v>596072.1352435072</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="H6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555395</v>
       </c>
       <c r="I6" t="n">
-        <v>596072.1352435068</v>
+        <v>596676.8946555388</v>
       </c>
       <c r="J6" t="n">
-        <v>419648.9160509142</v>
+        <v>420253.6754629465</v>
       </c>
       <c r="K6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555394</v>
       </c>
       <c r="L6" t="n">
-        <v>596072.135243507</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="M6" t="n">
-        <v>466429.8204045625</v>
+        <v>467034.5798165944</v>
       </c>
       <c r="N6" t="n">
-        <v>596072.1352435073</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="O6" t="n">
-        <v>596072.1352435071</v>
+        <v>596676.8946555393</v>
       </c>
       <c r="P6" t="n">
-        <v>596072.1352435066</v>
+        <v>596676.8946555392</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>315.4020750510521</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>312.8251745039251</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16.14845684064204</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>57.77152128985826</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.49591467042796</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>7.478382179941548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758265</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.821082683639</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779111</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400166</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359034</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400157</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359034</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400166</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>684.4630967757939</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>694.2441980687694</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400157</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>445.0681741211592</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
